--- a/public/import/daily sandi.xlsx
+++ b/public/import/daily sandi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -25,7 +25,7 @@
     <t>time</t>
   </si>
   <si>
-    <t>13-06-2022</t>
+    <t>2022-08-15</t>
   </si>
   <si>
     <t xml:space="preserve">Beres beres dan mengatur tata letak barang </t>
@@ -79,31 +79,25 @@
     <t>membawa barang kiriman ke bawah lalu serah terima dengan satpam</t>
   </si>
   <si>
-    <t>17.30</t>
-  </si>
-  <si>
-    <t>14-06-2022</t>
-  </si>
-  <si>
-    <t>15-06-2022</t>
-  </si>
-  <si>
-    <t>16-06-2022</t>
-  </si>
-  <si>
-    <t>17-06-2022</t>
-  </si>
-  <si>
-    <t>18-06-2022</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>15.00</t>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>2022-08-16</t>
+  </si>
+  <si>
+    <t>2022-08-17</t>
+  </si>
+  <si>
+    <t>HARI LIBUR NASIONAL</t>
+  </si>
+  <si>
+    <t>2022-08-18</t>
+  </si>
+  <si>
+    <t>2022-08-19</t>
+  </si>
+  <si>
+    <t>2022-08-20</t>
   </si>
 </sst>
 </file>
@@ -112,11 +106,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,69 +118,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,14 +204,50 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,53 +261,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,18 +285,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -308,163 +435,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +476,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,11 +505,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,217 +568,168 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,9 +1078,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -1099,7 +1103,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1110,7 +1114,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1121,7 +1125,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1132,7 +1136,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1143,7 +1147,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1154,7 +1158,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1165,7 +1169,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1176,7 +1180,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1187,7 +1191,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1198,7 +1202,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1209,7 +1213,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1220,7 +1224,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1231,7 +1235,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1242,7 +1246,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1253,7 +1257,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1264,7 +1268,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1275,7 +1279,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1286,7 +1290,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1297,399 +1301,311 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
+      <c r="A21" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
